--- a/MiniRaceWing/airfoil.xlsx
+++ b/MiniRaceWing/airfoil.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cygwin64\home\MTK81226\UAVFrames\MiniRaceWing\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="360" yWindow="60" windowWidth="37755" windowHeight="16845"/>
   </bookViews>
@@ -11,7 +16,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -33,19 +38,19 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -83,7 +88,1569 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Up</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="49"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>235</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>240</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="49"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13.7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13.9</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14.1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14.3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14.35</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14.3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>13.8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>13.7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>13.1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>12.8</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>12.6</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>11.8</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>11.5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>11.2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>10.6</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>7.6</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>7.1</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>6.7</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>6.2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>5.9</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4.7</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Down</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="49"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>235</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>240</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="49"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-4.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-4.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-5.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-5.3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-5.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-5.6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-5.7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-5.8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-6.1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-6.2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-6.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-6.4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-6.3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-6.2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-6.1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-5.9</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-5.8</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-5.6</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-5.4</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-5.2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-4.7</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-4.5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-4.3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-3.9</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-3.6</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-3.3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-2.7</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-2.6</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-2.4</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-1.6</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-1.4</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-0.7</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-0.6</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-0.4</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-0.2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-0.1</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="379848408"/>
+        <c:axId val="379848016"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="379848408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="379848016"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="379848016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="379848408"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>57151</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -129,7 +1696,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -161,9 +1728,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -195,6 +1763,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -370,14 +1939,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -410,7 +1979,7 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -422,19 +1991,19 @@
         <v>7.5</v>
       </c>
       <c r="C4">
-        <v>3.5</v>
+        <v>-3.5</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <f t="shared" ref="A5:A53" si="0">A4+5</f>
+        <f t="shared" ref="A5:A50" si="0">A4+5</f>
         <v>15</v>
       </c>
       <c r="B5">
         <v>8.75</v>
       </c>
       <c r="C5">
-        <v>4</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -446,7 +2015,7 @@
         <v>10</v>
       </c>
       <c r="C6">
-        <v>4.4000000000000004</v>
+        <v>-4.5</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -457,6 +2026,9 @@
       <c r="B7">
         <v>11.2</v>
       </c>
+      <c r="C7">
+        <v>-4.9000000000000004</v>
+      </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
@@ -466,6 +2038,9 @@
       <c r="B8">
         <v>12.1</v>
       </c>
+      <c r="C8">
+        <v>-5.0999999999999996</v>
+      </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
@@ -475,6 +2050,9 @@
       <c r="B9">
         <v>12.8</v>
       </c>
+      <c r="C9">
+        <v>-5.3</v>
+      </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
@@ -484,6 +2062,9 @@
       <c r="B10">
         <v>13.2</v>
       </c>
+      <c r="C10">
+        <v>-5.4</v>
+      </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
@@ -493,6 +2074,9 @@
       <c r="B11">
         <v>13.7</v>
       </c>
+      <c r="C11">
+        <v>-5.6</v>
+      </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
@@ -502,6 +2086,9 @@
       <c r="B12">
         <v>13.9</v>
       </c>
+      <c r="C12">
+        <v>-5.7</v>
+      </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
@@ -511,6 +2098,9 @@
       <c r="B13">
         <v>14.1</v>
       </c>
+      <c r="C13">
+        <v>-5.8</v>
+      </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
@@ -520,6 +2110,9 @@
       <c r="B14">
         <v>14.3</v>
       </c>
+      <c r="C14">
+        <v>-6.1</v>
+      </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
@@ -529,6 +2122,9 @@
       <c r="B15">
         <v>14.35</v>
       </c>
+      <c r="C15">
+        <v>-6.2</v>
+      </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
@@ -538,8 +2134,11 @@
       <c r="B16">
         <v>14.3</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
+      <c r="C16">
+        <v>-6.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>75</v>
@@ -547,8 +2146,11 @@
       <c r="B17">
         <v>14</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>-6.4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>80</v>
@@ -556,212 +2158,408 @@
       <c r="B18">
         <v>13.8</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>-6.3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>85</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="B19">
+        <v>13.7</v>
+      </c>
+      <c r="C19">
+        <v>-6.2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
+      <c r="B20">
+        <v>13.5</v>
+      </c>
+      <c r="C20">
+        <v>-6.1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>95</v>
       </c>
-    </row>
-    <row r="22" spans="1:2">
+      <c r="B21">
+        <v>13.1</v>
+      </c>
+      <c r="C21">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
+      <c r="B22">
+        <v>12.8</v>
+      </c>
+      <c r="C22">
+        <v>-5.9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>105</v>
       </c>
-    </row>
-    <row r="24" spans="1:2">
+      <c r="B23">
+        <v>12.6</v>
+      </c>
+      <c r="C23">
+        <v>-5.8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>110</v>
       </c>
-    </row>
-    <row r="25" spans="1:2">
+      <c r="B24">
+        <v>12.5</v>
+      </c>
+      <c r="C24">
+        <v>-5.6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>115</v>
       </c>
-    </row>
-    <row r="26" spans="1:2">
+      <c r="B25">
+        <v>11.8</v>
+      </c>
+      <c r="C25">
+        <v>-5.4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-    </row>
-    <row r="27" spans="1:2">
+      <c r="B26">
+        <v>11.5</v>
+      </c>
+      <c r="C26">
+        <v>-5.2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>125</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="B27">
+        <v>11.2</v>
+      </c>
+      <c r="C27">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>130</v>
       </c>
-    </row>
-    <row r="29" spans="1:2">
+      <c r="B28">
+        <v>11</v>
+      </c>
+      <c r="C28">
+        <v>-4.7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29">
         <f t="shared" si="0"/>
         <v>135</v>
       </c>
-    </row>
-    <row r="30" spans="1:2">
+      <c r="B29">
+        <v>10.6</v>
+      </c>
+      <c r="C29">
+        <v>-4.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30">
         <f t="shared" si="0"/>
         <v>140</v>
       </c>
-    </row>
-    <row r="31" spans="1:2">
+      <c r="B30">
+        <v>10</v>
+      </c>
+      <c r="C30">
+        <v>-4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31">
         <f t="shared" si="0"/>
         <v>145</v>
       </c>
-    </row>
-    <row r="32" spans="1:2">
+      <c r="B31">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="C31">
+        <v>-4.3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32">
         <f t="shared" si="0"/>
         <v>150</v>
       </c>
-    </row>
-    <row r="33" spans="1:1">
+      <c r="B32">
+        <v>9</v>
+      </c>
+      <c r="C32">
+        <v>-4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
       <c r="A33">
         <f t="shared" si="0"/>
         <v>155</v>
       </c>
-    </row>
-    <row r="34" spans="1:1">
+      <c r="B33">
+        <v>8.5</v>
+      </c>
+      <c r="C33">
+        <v>-3.9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
       <c r="A34">
         <f t="shared" si="0"/>
         <v>160</v>
       </c>
-    </row>
-    <row r="35" spans="1:1">
+      <c r="B34">
+        <v>8</v>
+      </c>
+      <c r="C34">
+        <v>-3.6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
       <c r="A35">
         <f t="shared" si="0"/>
         <v>165</v>
       </c>
-    </row>
-    <row r="36" spans="1:1">
+      <c r="B35">
+        <v>7.6</v>
+      </c>
+      <c r="C35">
+        <v>-3.3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
       <c r="A36">
         <f t="shared" si="0"/>
         <v>170</v>
       </c>
-    </row>
-    <row r="37" spans="1:1">
+      <c r="B36">
+        <v>7.1</v>
+      </c>
+      <c r="C36">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
       <c r="A37">
         <f t="shared" si="0"/>
         <v>175</v>
       </c>
-    </row>
-    <row r="38" spans="1:1">
+      <c r="B37">
+        <v>6.7</v>
+      </c>
+      <c r="C37">
+        <v>-2.7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
       <c r="A38">
         <f t="shared" si="0"/>
         <v>180</v>
       </c>
-    </row>
-    <row r="39" spans="1:1">
+      <c r="B38">
+        <v>6.2</v>
+      </c>
+      <c r="C38">
+        <v>-2.6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
       <c r="A39">
         <f t="shared" si="0"/>
         <v>185</v>
       </c>
-    </row>
-    <row r="40" spans="1:1">
+      <c r="B39">
+        <v>5.9</v>
+      </c>
+      <c r="C39">
+        <v>-2.4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
       <c r="A40">
         <f t="shared" si="0"/>
         <v>190</v>
       </c>
-    </row>
-    <row r="41" spans="1:1">
+      <c r="B40">
+        <v>5.6</v>
+      </c>
+      <c r="C40">
+        <v>-2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
       <c r="A41">
         <f t="shared" si="0"/>
         <v>195</v>
       </c>
-    </row>
-    <row r="42" spans="1:1">
+      <c r="B41">
+        <v>5.2</v>
+      </c>
+      <c r="C41">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
       <c r="A42">
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
-    </row>
-    <row r="43" spans="1:1">
+      <c r="B42">
+        <v>4.7</v>
+      </c>
+      <c r="C42">
+        <v>-1.6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
       <c r="A43">
         <f t="shared" si="0"/>
         <v>205</v>
       </c>
-    </row>
-    <row r="44" spans="1:1">
+      <c r="B43">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="C43">
+        <v>-1.4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
       <c r="A44">
         <f t="shared" si="0"/>
         <v>210</v>
       </c>
-    </row>
-    <row r="45" spans="1:1">
+      <c r="B44">
+        <v>4</v>
+      </c>
+      <c r="C44">
+        <v>-1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
       <c r="A45">
         <f t="shared" si="0"/>
         <v>215</v>
       </c>
-    </row>
-    <row r="46" spans="1:1">
+      <c r="B45">
+        <v>3.5</v>
+      </c>
+      <c r="C45">
+        <v>-0.7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
       <c r="A46">
         <f t="shared" si="0"/>
         <v>220</v>
       </c>
-    </row>
-    <row r="47" spans="1:1">
+      <c r="B46">
+        <v>3.3</v>
+      </c>
+      <c r="C46">
+        <v>-0.6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
       <c r="A47">
         <f t="shared" si="0"/>
         <v>225</v>
       </c>
-    </row>
-    <row r="48" spans="1:1">
+      <c r="B47">
+        <v>3.1</v>
+      </c>
+      <c r="C47">
+        <v>-0.4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
       <c r="A48">
         <f t="shared" si="0"/>
         <v>230</v>
       </c>
-    </row>
-    <row r="49" spans="1:1">
+      <c r="B48">
+        <v>2.5</v>
+      </c>
+      <c r="C48">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
       <c r="A49">
         <f t="shared" si="0"/>
         <v>235</v>
       </c>
-    </row>
-    <row r="50" spans="1:1">
+      <c r="B49">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C49">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
       <c r="A50">
         <f t="shared" si="0"/>
         <v>240</v>
+      </c>
+      <c r="B50">
+        <v>2.1</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -769,12 +2567,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
